--- a/Ambiental2/29_de_4_2019/cuadros.xlsx
+++ b/Ambiental2/29_de_4_2019/cuadros.xlsx
@@ -19,21 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="96">
   <si>
     <t>ESPECIE</t>
   </si>
   <si>
-    <t>VOLUMEN.ESPECIE.suma</t>
-  </si>
-  <si>
-    <t>BIOMASA.ESPECIE.suma</t>
-  </si>
-  <si>
-    <t>CC.ESPECIE.suma</t>
-  </si>
-  <si>
-    <t>CO2.ESPECIE.suma</t>
+    <t>VOLUMEN.ESPECIE</t>
+  </si>
+  <si>
+    <t>BIOMASA.ESPECIE</t>
+  </si>
+  <si>
+    <t>CC.ESPECIE</t>
+  </si>
+  <si>
+    <t>CO2.ESPECIE</t>
   </si>
   <si>
     <t>VOLUMEN.ESPECIE.promedio</t>
@@ -159,22 +159,52 @@
     <t>2015 control</t>
   </si>
   <si>
+    <t>Fraxinus sp</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>quercus arizonica</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>topes</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>Fraxinus sp</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>topes</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>(7.4,10]</t>
@@ -192,19 +222,91 @@
     <t>(17.4,20]</t>
   </si>
   <si>
+    <t>(20,22.4]</t>
+  </si>
+  <si>
     <t>(22.4,25]</t>
   </si>
   <si>
+    <t>(25,27.4]</t>
+  </si>
+  <si>
     <t>(27.4,30]</t>
   </si>
   <si>
+    <t>(30,32.4]</t>
+  </si>
+  <si>
     <t>(32.4,35]</t>
   </si>
   <si>
     <t>(35,37.4]</t>
   </si>
   <si>
-    <t>(25,27.4]</t>
+    <t>(37.4,40]</t>
+  </si>
+  <si>
+    <t>(40,42.4]</t>
+  </si>
+  <si>
+    <t>(42.4,45]</t>
+  </si>
+  <si>
+    <t>(45,47.4]</t>
+  </si>
+  <si>
+    <t>(47.4,50]</t>
+  </si>
+  <si>
+    <t>(50,52.4]</t>
+  </si>
+  <si>
+    <t>(52.4,55]</t>
+  </si>
+  <si>
+    <t>(55,57.4]</t>
+  </si>
+  <si>
+    <t>(57.4,60]</t>
+  </si>
+  <si>
+    <t>(60,62.4]</t>
+  </si>
+  <si>
+    <t>(62.4,65]</t>
+  </si>
+  <si>
+    <t>(65,67.4]</t>
+  </si>
+  <si>
+    <t>(67.4,70]</t>
+  </si>
+  <si>
+    <t>(70,72.4]</t>
+  </si>
+  <si>
+    <t>(75,77.4]</t>
+  </si>
+  <si>
+    <t>(82.4,85]</t>
+  </si>
+  <si>
+    <t>(72.4,75]</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>(77.4,80]</t>
+  </si>
+  <si>
+    <t>(87.4,90]</t>
+  </si>
+  <si>
+    <t>(80,82.4]</t>
   </si>
 </sst>
 </file>
@@ -334,25 +436,25 @@
         <v>3.7654992925549617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06625689033852718</v>
+        <v>3.021813182275357</v>
       </c>
       <c r="E3" t="n">
-        <v>0.035182408769757936</v>
+        <v>1.6045827997882147</v>
       </c>
       <c r="F3" t="n">
-        <v>0.13170182898871186</v>
+        <v>6.006595252727203</v>
       </c>
       <c r="G3" t="n">
         <v>0.039223950964114185</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06625689033852718</v>
+        <v>0.031477220648701634</v>
       </c>
       <c r="I3" t="n">
-        <v>0.035182408769757936</v>
+        <v>0.01671440416446057</v>
       </c>
       <c r="J3" t="n">
-        <v>0.13170182898871186</v>
+        <v>0.0625687005492417</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -369,25 +471,25 @@
         <v>60.133098642018886</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0049097245301666734</v>
+        <v>21.196917271311655</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002557966480216837</v>
+        <v>11.043593898353373</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009575491722043706</v>
+        <v>41.34058939909602</v>
       </c>
       <c r="G4" t="n">
         <v>0.05532023794113973</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0049097245301666734</v>
+        <v>0.019500383874251754</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002557966480216837</v>
+        <v>0.010159699998485164</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009575491722043706</v>
+        <v>0.03803182097432936</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
@@ -404,25 +506,25 @@
         <v>73.29591920753306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1082943025117642</v>
+        <v>23.637933944429413</v>
       </c>
       <c r="E5" t="n">
-        <v>0.056421331608629145</v>
+        <v>12.315363585047725</v>
       </c>
       <c r="F5" t="n">
-        <v>0.21120761274374236</v>
+        <v>46.10133204426765</v>
       </c>
       <c r="G5" t="n">
         <v>0.3628510851858073</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1082943025117642</v>
+        <v>0.11701947497242284</v>
       </c>
       <c r="I5" t="n">
-        <v>0.056421331608629145</v>
+        <v>0.0609671464606323</v>
       </c>
       <c r="J5" t="n">
-        <v>0.21120761274374236</v>
+        <v>0.22822441606073096</v>
       </c>
       <c r="K5" t="s">
         <v>44</v>
@@ -439,25 +541,25 @@
         <v>40.67998313937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.028561356608587246</v>
+        <v>13.729494309537378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.014880466793073956</v>
+        <v>7.153066535268974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05570353939319305</v>
+        <v>26.776789268125878</v>
       </c>
       <c r="G6" t="n">
         <v>0.11114749491631148</v>
       </c>
       <c r="H6" t="n">
-        <v>0.028561356608587246</v>
+        <v>0.03751227953425513</v>
       </c>
       <c r="I6" t="n">
-        <v>0.014880466793073956</v>
+        <v>0.019543897637346923</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05570353939319305</v>
+        <v>0.07316062641564447</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -474,25 +576,25 @@
         <v>375.32599952952637</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15361858928847583</v>
+        <v>132.30241483415804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08003528501929591</v>
+        <v>68.92955812859634</v>
       </c>
       <c r="F7" t="n">
-        <v>0.29960408594123233</v>
+        <v>258.03090789858754</v>
       </c>
       <c r="G7" t="n">
         <v>0.2882688168429542</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15361858928847583</v>
+        <v>0.10161475793714135</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08003528501929591</v>
+        <v>0.05294128888525065</v>
       </c>
       <c r="J7" t="n">
-        <v>0.29960408594123233</v>
+        <v>0.19818042081304726</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -509,25 +611,25 @@
         <v>70.47227302877738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.014684273563483211</v>
+        <v>23.255850099496534</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007650506526574753</v>
+        <v>12.116297901837696</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02863890613157993</v>
+        <v>45.35614956573923</v>
       </c>
       <c r="G8" t="n">
         <v>0.2534973849956021</v>
       </c>
       <c r="H8" t="n">
-        <v>0.014684273563483211</v>
+        <v>0.0836541370485487</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007650506526574753</v>
+        <v>0.04358380540229387</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02863890613157993</v>
+        <v>0.16315161714294688</v>
       </c>
       <c r="K8" t="s">
         <v>44</v>
@@ -544,25 +646,25 @@
         <v>56.77883096324035</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06243133274859637</v>
+        <v>20.014537914542224</v>
       </c>
       <c r="E9" t="n">
-        <v>0.032526724362018714</v>
+        <v>10.427574253476498</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12176053997678085</v>
+        <v>39.034581460463926</v>
       </c>
       <c r="G9" t="n">
         <v>0.3069125998012992</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06243133274859637</v>
+        <v>0.10818669142995796</v>
       </c>
       <c r="I9" t="n">
-        <v>0.032526724362018714</v>
+        <v>0.0563652662350081</v>
       </c>
       <c r="J9" t="n">
-        <v>0.12176053997678085</v>
+        <v>0.21099773762412932</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -614,25 +716,25 @@
         <v>1.9598565431821922</v>
       </c>
       <c r="D11" t="n">
-        <v>0.034125771434769726</v>
+        <v>0.6614515833239899</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01777952691751503</v>
+        <v>0.34461627491179875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06655588106302575</v>
+        <v>1.2900365635048272</v>
       </c>
       <c r="G11" t="n">
         <v>0.1959856543182192</v>
       </c>
       <c r="H11" t="n">
-        <v>0.034125771434769726</v>
+        <v>0.06614515833239898</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01777952691751503</v>
+        <v>0.03446162749117987</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06655588106302575</v>
+        <v>0.12900365635048272</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -649,25 +751,25 @@
         <v>46.92399120525563</v>
       </c>
       <c r="D12" t="n">
-        <v>0.015279116022565317</v>
+        <v>39.162763059906354</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008113210607982183</v>
+        <v>20.795427184810276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.030370992589920504</v>
+        <v>77.84560212361879</v>
       </c>
       <c r="G12" t="n">
         <v>0.08364347808423464</v>
       </c>
       <c r="H12" t="n">
-        <v>0.015279116022565317</v>
+        <v>0.06980884680910224</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008113210607982183</v>
+        <v>0.03706849765563329</v>
       </c>
       <c r="J12" t="n">
-        <v>0.030370992589920504</v>
+        <v>0.13876221412409767</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
@@ -684,25 +786,25 @@
         <v>0.9421390112128541</v>
       </c>
       <c r="D13" t="n">
-        <v>0.13272093031153043</v>
+        <v>0.61493413261863</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07047481399542266</v>
+        <v>0.3265300244204925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.26381541871046515</v>
+        <v>1.2223324934156716</v>
       </c>
       <c r="G13" t="n">
         <v>0.23553475280321354</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13272093031153043</v>
+        <v>0.1537335331546575</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07047481399542266</v>
+        <v>0.08163250610512313</v>
       </c>
       <c r="J13" t="n">
-        <v>0.26381541871046515</v>
+        <v>0.3055831233539179</v>
       </c>
       <c r="K13" t="s">
         <v>44</v>
@@ -719,25 +821,25 @@
         <v>31.423206170430102</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02114880705738676</v>
+        <v>22.19106819755774</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01123001654747237</v>
+        <v>11.783457212903162</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04203844394380807</v>
+        <v>44.110193730781695</v>
       </c>
       <c r="G14" t="n">
         <v>0.062224170634515054</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02114880705738676</v>
+        <v>0.04394270930209454</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01123001654747237</v>
+        <v>0.0233335786394122</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04203844394380807</v>
+        <v>0.08734691827877564</v>
       </c>
       <c r="K14" t="s">
         <v>44</v>
@@ -754,25 +856,25 @@
         <v>2.547124658918908</v>
       </c>
       <c r="D15" t="n">
-        <v>0.012089403011760709</v>
+        <v>1.8532879018293977</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006419472999244937</v>
+        <v>0.9840958758714102</v>
       </c>
       <c r="F15" t="n">
-        <v>0.024030655225373496</v>
+        <v>3.683864501737037</v>
       </c>
       <c r="G15" t="n">
         <v>0.09096873781853243</v>
       </c>
       <c r="H15" t="n">
-        <v>0.012089403011760709</v>
+        <v>0.0661888536367642</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006419472999244937</v>
+        <v>0.035146281281121794</v>
       </c>
       <c r="J15" t="n">
-        <v>0.024030655225373496</v>
+        <v>0.13156658934775134</v>
       </c>
       <c r="K15" t="s">
         <v>44</v>
@@ -789,25 +891,25 @@
         <v>0.2033468526060392</v>
       </c>
       <c r="D16" t="n">
-        <v>0.13564898263210046</v>
+        <v>0.15013098127903873</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07202960977764535</v>
+        <v>0.07971955105916957</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2696356412416375</v>
+        <v>0.29842216743489536</v>
       </c>
       <c r="G16" t="n">
         <v>0.1016734263030196</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13564898263210046</v>
+        <v>0.07506549063951937</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07202960977764535</v>
+        <v>0.039859775529584786</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2696356412416375</v>
+        <v>0.14921108371744768</v>
       </c>
       <c r="K16" t="s">
         <v>44</v>
@@ -824,25 +926,25 @@
         <v>41.872206773271884</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01606669746248466</v>
+        <v>27.32998936091456</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008531416352579355</v>
+        <v>14.512224350645631</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03193650397424555</v>
+        <v>54.32506063420686</v>
       </c>
       <c r="G17" t="n">
         <v>0.14901141200452628</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01606669746248466</v>
+        <v>0.0972597486153543</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008531416352579355</v>
+        <v>0.05164492651475314</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03193650397424555</v>
+        <v>0.1933276179153269</v>
       </c>
       <c r="K17" t="s">
         <v>44</v>
@@ -859,25 +961,25 @@
         <v>10.012100125329289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3320230008911231</v>
+        <v>8.356098764599825</v>
       </c>
       <c r="E18" t="n">
-        <v>0.17630421347318637</v>
+        <v>4.437088444002507</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6599771927155259</v>
+        <v>16.609796881278985</v>
       </c>
       <c r="G18" t="n">
         <v>0.31287812891654027</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3320230008911231</v>
+        <v>0.2611280863937445</v>
       </c>
       <c r="I18" t="n">
-        <v>0.17630421347318637</v>
+        <v>0.13865901387507834</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6599771927155259</v>
+        <v>0.5190561525399683</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
@@ -940,7 +1042,7 @@
         <v>2.77351354821232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06168209061749771</v>
+        <v>2.225744622440387</v>
       </c>
       <c r="E2" t="n">
         <v>0.03275319011789128</v>
@@ -952,7 +1054,7 @@
         <v>0.04952702764664857</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06168209061749771</v>
+        <v>0.03974543968643548</v>
       </c>
       <c r="I2" t="n">
         <v>0.03275319011789128</v>
@@ -975,25 +1077,25 @@
         <v>5.383278887630829</v>
       </c>
       <c r="D3" t="n">
-        <v>0.012470906276084059</v>
+        <v>1.8976058078898672</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006497342169839795</v>
+        <v>0.9886526259106209</v>
       </c>
       <c r="F3" t="n">
-        <v>0.024322150678578285</v>
+        <v>3.700922239833818</v>
       </c>
       <c r="G3" t="n">
         <v>0.06485878177868469</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012470906276084059</v>
+        <v>0.02286272057698635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006497342169839795</v>
+        <v>0.011911477420609889</v>
       </c>
       <c r="J3" t="n">
-        <v>0.024322150678578285</v>
+        <v>0.04458942457631106</v>
       </c>
       <c r="K3" t="s">
         <v>45</v>
@@ -1010,25 +1112,25 @@
         <v>22.850516873386255</v>
       </c>
       <c r="D4" t="n">
-        <v>0.026132457414073107</v>
+        <v>7.369291691667067</v>
       </c>
       <c r="E4" t="n">
-        <v>0.013615010312732089</v>
+        <v>3.839400971358542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.050966429604681306</v>
+        <v>14.372413596183566</v>
       </c>
       <c r="G4" t="n">
         <v>0.44804935045855404</v>
       </c>
       <c r="H4" t="n">
-        <v>0.026132457414073107</v>
+        <v>0.14449591552288366</v>
       </c>
       <c r="I4" t="n">
-        <v>0.013615010312732089</v>
+        <v>0.0752823719874224</v>
       </c>
       <c r="J4" t="n">
-        <v>0.050966429604681306</v>
+        <v>0.281812031297717</v>
       </c>
       <c r="K4" t="s">
         <v>45</v>
@@ -1045,25 +1147,25 @@
         <v>44.126032949584825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009775452922317322</v>
+        <v>14.89253612048488</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0050930109725273245</v>
+        <v>7.759011318772623</v>
       </c>
       <c r="F5" t="n">
-        <v>0.019065177274558788</v>
+        <v>29.045082970693436</v>
       </c>
       <c r="G5" t="n">
         <v>0.10895316777675267</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009775452922317322</v>
+        <v>0.036771694124654024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0050930109725273245</v>
+        <v>0.019158052638944746</v>
       </c>
       <c r="J5" t="n">
-        <v>0.019065177274558788</v>
+        <v>0.07171625424862577</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
@@ -1080,25 +1182,25 @@
         <v>169.94285968361035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.026916227863255142</v>
+        <v>59.90485803847264</v>
       </c>
       <c r="E6" t="n">
-        <v>0.014023354716755929</v>
+        <v>31.21043103804425</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05249502604670415</v>
+        <v>116.83312754781484</v>
       </c>
       <c r="G6" t="n">
         <v>0.3176502050160941</v>
       </c>
       <c r="H6" t="n">
-        <v>0.026916227863255142</v>
+        <v>0.11197169726817316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.014023354716755929</v>
+        <v>0.058337254276718216</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05249502604670415</v>
+        <v>0.21837967765946698</v>
       </c>
       <c r="K6" t="s">
         <v>45</v>
@@ -1115,25 +1217,25 @@
         <v>3.5253850258241</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2667484466389295</v>
+        <v>1.1633770585219532</v>
       </c>
       <c r="E7" t="n">
-        <v>0.13897594069888228</v>
+        <v>0.6061194474899375</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5202425364121958</v>
+        <v>2.268947539733832</v>
       </c>
       <c r="G7" t="n">
         <v>0.2937820854853417</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2667484466389295</v>
+        <v>0.09694808821016275</v>
       </c>
       <c r="I7" t="n">
-        <v>0.13897594069888228</v>
+        <v>0.050509953957494795</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5202425364121958</v>
+        <v>0.189078961644486</v>
       </c>
       <c r="K7" t="s">
         <v>45</v>
@@ -1150,25 +1252,25 @@
         <v>18.633768782824706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2559886296168271</v>
+        <v>6.5684034959457085</v>
       </c>
       <c r="E8" t="n">
-        <v>0.13337007603036694</v>
+        <v>3.4221382213877143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4992575426120755</v>
+        <v>12.81043221794277</v>
       </c>
       <c r="G8" t="n">
         <v>0.1809103765322787</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2559886296168271</v>
+        <v>0.06377090772762824</v>
       </c>
       <c r="I8" t="n">
-        <v>0.13337007603036694</v>
+        <v>0.03322464292609431</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4992575426120755</v>
+        <v>0.12437312832954145</v>
       </c>
       <c r="K8" t="s">
         <v>45</v>
@@ -1185,7 +1287,7 @@
         <v>9.314188639784383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.024934244799425256</v>
+        <v>7.773621838764047</v>
       </c>
       <c r="E9" t="n">
         <v>0.013240083988494812</v>
@@ -1197,7 +1299,7 @@
         <v>0.054789344939908134</v>
       </c>
       <c r="H9" t="n">
-        <v>0.024934244799425256</v>
+        <v>0.04572718728684733</v>
       </c>
       <c r="I9" t="n">
         <v>0.013240083988494812</v>
@@ -1220,7 +1322,7 @@
         <v>0.46547674773978803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0237249509132668</v>
+        <v>0.3038166732497597</v>
       </c>
       <c r="E10" t="n">
         <v>0.012597948934944671</v>
@@ -1232,7 +1334,7 @@
         <v>0.0930953495479576</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0237249509132668</v>
+        <v>0.060763334649951935</v>
       </c>
       <c r="I10" t="n">
         <v>0.012597948934944671</v>
@@ -1255,7 +1357,7 @@
         <v>8.79859009585322</v>
       </c>
       <c r="D11" t="n">
-        <v>0.054726931035597844</v>
+        <v>6.213564325691544</v>
       </c>
       <c r="E11" t="n">
         <v>0.029060000379902456</v>
@@ -1267,7 +1369,7 @@
         <v>0.06240134819754056</v>
       </c>
       <c r="H11" t="n">
-        <v>0.054726931035597844</v>
+        <v>0.044067832097103146</v>
       </c>
       <c r="I11" t="n">
         <v>0.029060000379902456</v>
@@ -1325,7 +1427,7 @@
         <v>44.53716605874203</v>
       </c>
       <c r="D13" t="n">
-        <v>0.048685854320794156</v>
+        <v>29.069408286540924</v>
       </c>
       <c r="E13" t="n">
         <v>0.0258521886443417</v>
@@ -1337,7 +1439,7 @@
         <v>0.09278576262237923</v>
       </c>
       <c r="H13" t="n">
-        <v>0.048685854320794156</v>
+        <v>0.06056126726362692</v>
       </c>
       <c r="I13" t="n">
         <v>0.0258521886443417</v>
@@ -1427,7 +1529,7 @@
         <v>0.6682059227506532</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1441,28 +1543,28 @@
         <v>1.7556316567949453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03496152740737593</v>
+        <v>1.4088944045779437</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01856457105331662</v>
+        <v>0.748122928830888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06949461528098544</v>
+        <v>2.8005233717855464</v>
       </c>
       <c r="G3" t="n">
         <v>0.05320095929681652</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03496152740737593</v>
+        <v>0.04269376983569526</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01856457105331662</v>
+        <v>0.022670391782754186</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06949461528098544</v>
+        <v>0.084864344599562</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -1470,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>0.011233646070037384</v>
@@ -1497,7 +1599,7 @@
         <v>0.016247037551767506</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -1511,28 +1613,28 @@
         <v>44.68713792756714</v>
       </c>
       <c r="D5" t="n">
-        <v>0.035897332320705584</v>
+        <v>15.752216119467418</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01870251013908761</v>
+        <v>8.206904598242525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07001097645466056</v>
+        <v>30.72172667306107</v>
       </c>
       <c r="G5" t="n">
         <v>0.04195975392259826</v>
       </c>
       <c r="H5" t="n">
-        <v>0.035897332320705584</v>
+        <v>0.014790813257715885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01870251013908761</v>
+        <v>0.007706013707269976</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07001097645466056</v>
+        <v>0.02884669171179443</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -1546,28 +1648,28 @@
         <v>76.7170305737765</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0922285817864428</v>
+        <v>24.74124236004292</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0480510911107367</v>
+        <v>12.890187269582363</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1798744544639318</v>
+        <v>48.253127024954615</v>
       </c>
       <c r="G6" t="n">
         <v>0.2851934222073476</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0922285817864428</v>
+        <v>0.0919748786618696</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0480510911107367</v>
+        <v>0.04791891178283406</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1798744544639318</v>
+        <v>0.17937965436786102</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -1581,28 +1683,28 @@
         <v>5.658216134910852</v>
       </c>
       <c r="D7" t="n">
-        <v>0.030178632854226957</v>
+        <v>1.9096479455324125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.015723067717052244</v>
+        <v>0.994926579622387</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05885773169201337</v>
+        <v>3.724408158158443</v>
       </c>
       <c r="G7" t="n">
         <v>0.14508246499771416</v>
       </c>
       <c r="H7" t="n">
-        <v>0.030178632854226957</v>
+        <v>0.04896533193672852</v>
       </c>
       <c r="I7" t="n">
-        <v>0.015723067717052244</v>
+        <v>0.025510937939035562</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05885773169201337</v>
+        <v>0.09549764508098572</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -1616,28 +1718,28 @@
         <v>116.49853052893769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0022376863366188864</v>
+        <v>41.065732011450535</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0011658345813784399</v>
+        <v>21.39524637796573</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0043641851719320515</v>
+        <v>80.09096529127692</v>
       </c>
       <c r="G8" t="n">
         <v>0.2897973396242231</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0022376863366188864</v>
+        <v>0.10215356221753864</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0011658345813784399</v>
+        <v>0.053222005915337635</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0043641851719320515</v>
+        <v>0.1992312569434749</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -1651,28 +1753,28 @@
         <v>169.34405693577622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0033020027964286523</v>
+        <v>55.88353878880615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0017203434569393278</v>
+        <v>29.115323708968006</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00643993369670668</v>
+        <v>108.99030277215083</v>
       </c>
       <c r="G9" t="n">
         <v>0.300255420098894</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0033020027964286523</v>
+        <v>0.09908428863263502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0017203434569393278</v>
+        <v>0.05162291437760285</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00643993369670668</v>
+        <v>0.1932452176811185</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -1686,28 +1788,28 @@
         <v>27.44900245214126</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004805224327854277</v>
+        <v>9.675773364379793</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0025035218748120786</v>
+        <v>5.041077922841873</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009371683786171535</v>
+        <v>18.870771096366266</v>
       </c>
       <c r="G10" t="n">
         <v>0.22685125993505173</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004805224327854277</v>
+        <v>0.07996506912710573</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0025035218748120786</v>
+        <v>0.04166180101522209</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009371683786171535</v>
+        <v>0.15595678592038237</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1721,28 +1823,28 @@
         <v>0.8217345792502555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.051911311084050685</v>
+        <v>0.3019874578744689</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02704579307479041</v>
+        <v>0.1573354655525983</v>
       </c>
       <c r="F11" t="n">
-        <v>0.10124322179617042</v>
+        <v>0.5889695817495966</v>
       </c>
       <c r="G11" t="n">
         <v>0.11739065417860793</v>
       </c>
       <c r="H11" t="n">
-        <v>0.051911311084050685</v>
+        <v>0.04314106541063841</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02704579307479041</v>
+        <v>0.022476495078942615</v>
       </c>
       <c r="J11" t="n">
-        <v>0.10124322179617042</v>
+        <v>0.08413851167851379</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1756,28 +1858,28 @@
         <v>9.56821579453183</v>
       </c>
       <c r="D12" t="n">
-        <v>0.027001074905726077</v>
+        <v>7.985632902116265</v>
       </c>
       <c r="E12" t="n">
-        <v>0.014337570774940548</v>
+        <v>4.240371071023737</v>
       </c>
       <c r="F12" t="n">
-        <v>0.053671262438912445</v>
+        <v>15.873405067270257</v>
       </c>
       <c r="G12" t="n">
         <v>0.05228533221055644</v>
       </c>
       <c r="H12" t="n">
-        <v>0.027001074905726077</v>
+        <v>0.04363733826293041</v>
       </c>
       <c r="I12" t="n">
-        <v>0.014337570774940548</v>
+        <v>0.023171426617616047</v>
       </c>
       <c r="J12" t="n">
-        <v>0.053671262438912445</v>
+        <v>0.08673991840038392</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1791,28 +1893,28 @@
         <v>3.1116151098983456</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02056913588504156</v>
+        <v>2.03095118223065</v>
       </c>
       <c r="E13" t="n">
-        <v>0.010922211154957069</v>
+        <v>1.0784350777644753</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04088620523746629</v>
+        <v>4.037013870103537</v>
       </c>
       <c r="G13" t="n">
         <v>0.08409770567292825</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02056913588504156</v>
+        <v>0.05489057249272027</v>
       </c>
       <c r="I13" t="n">
-        <v>0.010922211154957069</v>
+        <v>0.029146893993634466</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04088620523746629</v>
+        <v>0.10910848297577126</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1826,28 +1928,28 @@
         <v>6.146897297124129</v>
       </c>
       <c r="D14" t="n">
-        <v>0.18810363128202842</v>
+        <v>4.340938871229061</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09988302821075709</v>
+        <v>2.3050385406226312</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3739021278041481</v>
+        <v>8.628681272966757</v>
       </c>
       <c r="G14" t="n">
         <v>0.04840076611908763</v>
       </c>
       <c r="H14" t="n">
-        <v>0.18810363128202842</v>
+        <v>0.03418062103329969</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09988302821075709</v>
+        <v>0.018149909768682138</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3739021278041481</v>
+        <v>0.0679423722280847</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -1861,28 +1963,28 @@
         <v>0.8569418763973902</v>
       </c>
       <c r="D15" t="n">
-        <v>0.014677792552034854</v>
+        <v>0.6235109092667412</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007793907845130508</v>
+        <v>0.3310842928206396</v>
       </c>
       <c r="F15" t="n">
-        <v>0.029175714627461546</v>
+        <v>1.2393809417447823</v>
       </c>
       <c r="G15" t="n">
         <v>0.07790380694521729</v>
       </c>
       <c r="H15" t="n">
-        <v>0.014677792552034854</v>
+        <v>0.05668280993334011</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007793907845130508</v>
+        <v>0.030098572074603598</v>
       </c>
       <c r="J15" t="n">
-        <v>0.029175714627461546</v>
+        <v>0.11267099470407112</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -1896,28 +1998,28 @@
         <v>0.08339010651549864</v>
       </c>
       <c r="D16" t="n">
-        <v>0.010304486924974423</v>
+        <v>0.06156691564039265</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005471682557161419</v>
+        <v>0.0326920322050485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.020482696484478057</v>
+        <v>0.12237935335637855</v>
       </c>
       <c r="G16" t="n">
         <v>0.02084752662887466</v>
       </c>
       <c r="H16" t="n">
-        <v>0.010304486924974423</v>
+        <v>0.015391728910098162</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005471682557161419</v>
+        <v>0.008173008051262125</v>
       </c>
       <c r="J16" t="n">
-        <v>0.020482696484478057</v>
+        <v>0.030594838339094637</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -1931,98 +2033,28 @@
         <v>17.478160545297698</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04215050001529399</v>
+        <v>11.407995387915808</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02238191550812111</v>
+        <v>6.057645550983294</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08378446251310055</v>
+        <v>22.67619035555086</v>
       </c>
       <c r="G17" t="n">
         <v>0.10161721247266103</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04215050001529399</v>
+        <v>0.06632555458090586</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02238191550812111</v>
+        <v>0.03521886948246101</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08378446251310055</v>
+        <v>0.13183831602064455</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8217345792502555</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.8217345792502555</v>
-      </c>
-      <c r="H18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.643469158500511</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.8217345792502555</v>
-      </c>
-      <c r="H19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2076,34 +2108,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2976529789076139</v>
+        <v>1.617875698223732</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2452362893219831</v>
+        <v>1.298345247824545</v>
       </c>
       <c r="E2" t="n">
-        <v>0.13022046962997302</v>
+        <v>0.6894213265948334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4874673060128411</v>
+        <v>2.580779793975099</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2976529789076139</v>
+        <v>0.0404468924555933</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2452362893219831</v>
+        <v>0.032458631195613624</v>
       </c>
       <c r="I2" t="n">
-        <v>0.13022046962997302</v>
+        <v>0.017235533164870833</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4874673060128411</v>
+        <v>0.06451949484937748</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2111,34 +2143,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>3.7654992925549617</v>
+        <v>60.7880248721165</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06625689033852718</v>
+        <v>21.427778767421067</v>
       </c>
       <c r="E3" t="n">
-        <v>0.035182408769757936</v>
+        <v>11.163872737826376</v>
       </c>
       <c r="F3" t="n">
-        <v>0.13170182898871186</v>
+        <v>41.790841206779255</v>
       </c>
       <c r="G3" t="n">
-        <v>0.039223950964114185</v>
+        <v>0.04886497176215153</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06625689033852718</v>
+        <v>0.017224902546158414</v>
       </c>
       <c r="I3" t="n">
-        <v>0.035182408769757936</v>
+        <v>0.008974174226548533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.13170182898871186</v>
+        <v>0.03359392379966178</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -2146,34 +2178,34 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>60.133098642018886</v>
+        <v>119.69153712939193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0049097245301666734</v>
+        <v>38.6005207242289</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002557966480216837</v>
+        <v>20.110871297323257</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009575491722043706</v>
+        <v>75.28303561439988</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05532023794113973</v>
+        <v>0.34394119864767797</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0049097245301666734</v>
+        <v>0.11092103656387614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002557966480216837</v>
+        <v>0.05778986004977948</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009575491722043706</v>
+        <v>0.2163305621103445</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -2181,34 +2213,34 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>73.29591920753306</v>
+        <v>10.59654366861324</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1082943025117642</v>
+        <v>2.940540868040174</v>
       </c>
       <c r="E5" t="n">
-        <v>0.056421331608629145</v>
+        <v>1.5320217922489308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.21120761274374236</v>
+        <v>5.734970377104648</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3628510851858073</v>
+        <v>0.09546435737489406</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1082943025117642</v>
+        <v>0.0264913591715331</v>
       </c>
       <c r="I5" t="n">
-        <v>0.056421331608629145</v>
+        <v>0.013801998128368746</v>
       </c>
       <c r="J5" t="n">
-        <v>0.21120761274374236</v>
+        <v>0.051666399793735565</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -2216,34 +2248,34 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>40.67998313937</v>
+        <v>156.03821740799128</v>
       </c>
       <c r="D6" t="n">
-        <v>0.028561356608587246</v>
+        <v>55.00347163631693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.014880466793073956</v>
+        <v>28.65680872252112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05570353939319305</v>
+        <v>107.27389777188556</v>
       </c>
       <c r="G6" t="n">
-        <v>0.11114749491631148</v>
+        <v>0.3230604915279323</v>
       </c>
       <c r="H6" t="n">
-        <v>0.028561356608587246</v>
+        <v>0.11387882326359612</v>
       </c>
       <c r="I6" t="n">
-        <v>0.014880466793073956</v>
+        <v>0.05933086692033358</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05570353939319305</v>
+        <v>0.22209916722957673</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -2251,34 +2283,34 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>375.32599952952637</v>
+        <v>181.27509425641944</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15361858928847583</v>
+        <v>59.82078110461841</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08003528501929591</v>
+        <v>31.166626955506196</v>
       </c>
       <c r="F7" t="n">
-        <v>0.29960408594123233</v>
+        <v>116.66915134524189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2882688168429542</v>
+        <v>0.2549579384759767</v>
       </c>
       <c r="H7" t="n">
-        <v>0.15361858928847583</v>
+        <v>0.08413611969707231</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08003528501929591</v>
+        <v>0.04383491836217467</v>
       </c>
       <c r="J7" t="n">
-        <v>0.29960408594123233</v>
+        <v>0.16409163339696467</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -2286,34 +2318,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>70.47227302877738</v>
+        <v>113.04214341166946</v>
       </c>
       <c r="D8" t="n">
-        <v>0.014684273563483211</v>
+        <v>39.84735555261348</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007650506526574753</v>
+        <v>20.760472242911625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02863890613157993</v>
+        <v>77.71475179411537</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2534973849956021</v>
+        <v>0.2306982518605499</v>
       </c>
       <c r="H8" t="n">
-        <v>0.014684273563483211</v>
+        <v>0.08132113378084384</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007650506526574753</v>
+        <v>0.04236831069981964</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02863890613157993</v>
+        <v>0.15860153427370485</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -2321,34 +2353,34 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
-        <v>56.77883096324035</v>
+        <v>0.14795672847284438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06243133274859637</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.032526724362018714</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12176053997678085</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3069125998012992</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.06243133274859637</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.032526724362018714</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.12176053997678085</v>
+        <v>0.02959134569456888</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -2356,34 +2388,34 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>0.024054237388274904</v>
+        <v>33.811966602006954</v>
       </c>
       <c r="D10" t="n">
-        <v>0.016214961423436116</v>
+        <v>28.219467326035005</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008610144515844577</v>
+        <v>14.98453715012459</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03223121498061259</v>
+        <v>56.09311636777639</v>
       </c>
       <c r="G10" t="n">
-        <v>0.024054237388274904</v>
+        <v>0.0468959314868335</v>
       </c>
       <c r="H10" t="n">
-        <v>0.016214961423436116</v>
+        <v>0.039139344418911245</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008610144515844577</v>
+        <v>0.020782991886441872</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03223121498061259</v>
+        <v>0.0777990518277065</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -2391,34 +2423,34 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>1.9598565431821922</v>
+        <v>56.94319488826122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.034125771434769726</v>
+        <v>40.213284230090075</v>
       </c>
       <c r="E11" t="n">
-        <v>0.018120784631862726</v>
+        <v>21.353253926177832</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06783334519091493</v>
+        <v>79.93377074725409</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1959856543182192</v>
+        <v>0.06860625890151954</v>
       </c>
       <c r="H11" t="n">
-        <v>0.034125771434769726</v>
+        <v>0.0484497400362531</v>
       </c>
       <c r="I11" t="n">
-        <v>0.018120784631862726</v>
+        <v>0.0257268119592504</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06783334519091493</v>
+        <v>0.09630574788825794</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -2426,34 +2458,34 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>46.92399120525563</v>
+        <v>1.867259931553322</v>
       </c>
       <c r="D12" t="n">
-        <v>0.015279116022565317</v>
+        <v>1.3586183261981974</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008113210607982183</v>
+        <v>0.7214263312112429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.030370992589920504</v>
+        <v>2.7005873282561663</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08364347808423464</v>
+        <v>0.13337570939666588</v>
       </c>
       <c r="H12" t="n">
-        <v>0.015279116022565317</v>
+        <v>0.0970441661570141</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008113210607982183</v>
+        <v>0.05153045222937449</v>
       </c>
       <c r="J12" t="n">
-        <v>0.030370992589920504</v>
+        <v>0.19289909487544046</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -2461,34 +2493,34 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9421390112128541</v>
+        <v>0.0600009444812614</v>
       </c>
       <c r="D13" t="n">
-        <v>0.13272093031153043</v>
+        <v>0.04429869731051529</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07047481399542266</v>
+        <v>0.02352260827188362</v>
       </c>
       <c r="F13" t="n">
-        <v>0.26381541871046515</v>
+        <v>0.08805453180496914</v>
       </c>
       <c r="G13" t="n">
-        <v>0.23553475280321354</v>
+        <v>0.0300004722406307</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13272093031153043</v>
+        <v>0.022149348655257646</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07047481399542266</v>
+        <v>0.01176130413594181</v>
       </c>
       <c r="J13" t="n">
-        <v>0.26381541871046515</v>
+        <v>0.04402726590248457</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -2496,34 +2528,34 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>31.423206170430102</v>
+        <v>1.1829498698865395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02114880705738676</v>
+        <v>0.7721113800749443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01123001654747237</v>
+        <v>0.40999114281979543</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04203844394380807</v>
+        <v>1.5347608440316223</v>
       </c>
       <c r="G14" t="n">
-        <v>0.062224170634515054</v>
+        <v>0.0909961438374261</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02114880705738676</v>
+        <v>0.059393183082688025</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01123001654747237</v>
+        <v>0.03153778021690734</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04203844394380807</v>
+        <v>0.11805852646397094</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -2531,34 +2563,34 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>2.547124658918908</v>
+        <v>0.05214117378897514</v>
       </c>
       <c r="D15" t="n">
-        <v>0.012089403011760709</v>
+        <v>0.04351702364427866</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006419472999244937</v>
+        <v>0.02310753955511197</v>
       </c>
       <c r="F15" t="n">
-        <v>0.024030655225373496</v>
+        <v>0.08650076357060615</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09096873781853243</v>
+        <v>0.05214117378897514</v>
       </c>
       <c r="H15" t="n">
-        <v>0.012089403011760709</v>
+        <v>0.04351702364427866</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006419472999244937</v>
+        <v>0.02310753955511197</v>
       </c>
       <c r="J15" t="n">
-        <v>0.024030655225373496</v>
+        <v>0.08650076357060615</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2609,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2609,31 +2641,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
         <v>20.73178262902419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02018884055273199</v>
+        <v>9.09880239717795</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01067117708819902</v>
+        <v>4.775669382008272</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03994648431196421</v>
+        <v>17.877240764609763</v>
       </c>
       <c r="G2" t="n">
         <v>0.01669225654510804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.010094420276365996</v>
+        <v>0.007325927856020894</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00533558854409951</v>
+        <v>0.0038451444299583506</v>
       </c>
       <c r="J2" t="n">
-        <v>0.019973242155982104</v>
+        <v>0.01439391365910609</v>
       </c>
     </row>
     <row r="3">
@@ -2641,31 +2673,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
         <v>25.63224873007789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04945317149258359</v>
+        <v>11.851737241154064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.026259634062561883</v>
+        <v>6.229140701066275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09830031414979415</v>
+        <v>23.318165300371493</v>
       </c>
       <c r="G3" t="n">
         <v>0.031258839914729136</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01648439049752786</v>
+        <v>0.014453338098968371</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008753211354187294</v>
+        <v>0.007596513050080823</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03276677138326472</v>
+        <v>0.028436786951672552</v>
       </c>
     </row>
     <row r="4">
@@ -2673,31 +2705,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
         <v>39.67429576650458</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0648767424607376</v>
+        <v>18.82157552858855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03396144979666914</v>
+        <v>9.898134899910561</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12713129116885122</v>
+        <v>37.052678184325195</v>
       </c>
       <c r="G4" t="n">
         <v>0.05234075958641765</v>
       </c>
       <c r="H4" t="n">
-        <v>0.021625580820245866</v>
+        <v>0.024830574575974342</v>
       </c>
       <c r="I4" t="n">
-        <v>0.011320483265556378</v>
+        <v>0.013058225461623432</v>
       </c>
       <c r="J4" t="n">
-        <v>0.042377097056283744</v>
+        <v>0.04888216119304115</v>
       </c>
     </row>
     <row r="5">
@@ -2705,31 +2737,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
         <v>35.78938453973375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.028561356608587246</v>
+        <v>16.857295775580646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.014880466793073956</v>
+        <v>8.864679480524424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05570353939319305</v>
+        <v>33.18404116739513</v>
       </c>
       <c r="G5" t="n">
         <v>0.07831375172808262</v>
       </c>
       <c r="H5" t="n">
-        <v>0.028561356608587246</v>
+        <v>0.03688686165334933</v>
       </c>
       <c r="I5" t="n">
-        <v>0.014880466793073956</v>
+        <v>0.019397548097427626</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05570353939319305</v>
+        <v>0.07261278154791057</v>
       </c>
     </row>
     <row r="6">
@@ -2737,31 +2769,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
         <v>49.03202687563649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26433720571922403</v>
+        <v>23.470816870585097</v>
       </c>
       <c r="E6" t="n">
-        <v>0.139738742909422</v>
+        <v>12.350092874670336</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5230980102071302</v>
+        <v>46.23133766704093</v>
       </c>
       <c r="G6" t="n">
         <v>0.11900977396999148</v>
       </c>
       <c r="H6" t="n">
-        <v>0.088112401906408</v>
+        <v>0.056968002113070626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.046579580969807334</v>
+        <v>0.02997595357929693</v>
       </c>
       <c r="J6" t="n">
-        <v>0.17436600340237673</v>
+        <v>0.11221198462874013</v>
       </c>
     </row>
     <row r="7">
@@ -2769,31 +2801,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>46.46060273045793</v>
+        <v>47.401488612105304</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37795721963351353</v>
+        <v>22.4973290269145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.20069528362539568</v>
+        <v>11.837339272910963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7512827247233063</v>
+        <v>44.311895834214894</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2150953830113793</v>
+        <v>0.1596009717579303</v>
       </c>
       <c r="H7" t="n">
-        <v>0.18897860981675677</v>
+        <v>0.07574858258220371</v>
       </c>
       <c r="I7" t="n">
-        <v>0.10034764181269784</v>
+        <v>0.0398563611882524</v>
       </c>
       <c r="J7" t="n">
-        <v>0.37564136236165313</v>
+        <v>0.14919830247210403</v>
       </c>
     </row>
     <row r="8">
@@ -2801,31 +2833,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
-        <v>40.380939695147774</v>
+        <v>46.46060273045793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.26191289180024</v>
+        <v>21.503959491127986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.13645661662792505</v>
+        <v>11.30435510389216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5108116986849747</v>
+        <v>42.31672289590991</v>
       </c>
       <c r="G8" t="n">
-        <v>0.37046733665273185</v>
+        <v>0.2150953830113793</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13095644590012</v>
+        <v>0.09955536801448141</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06822830831396252</v>
+        <v>0.05233497733283408</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25540584934248733</v>
+        <v>0.19591075414773107</v>
       </c>
     </row>
     <row r="9">
@@ -2833,31 +2865,671 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>51.15520770755755</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.781844901470933</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12.50328496715808</v>
+      </c>
+      <c r="F9" t="n">
+        <v>46.804796946059554</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.27210216865722103</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.12649917500782412</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06650683493169192</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2489616858832955</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40.380939695147774</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.940511330029643</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.881775082075443</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33.24803684224121</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.37046733665273185</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.15541753513788664</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.08148417506491233</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3050278609379928</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49.963227813286025</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.006958257679017</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.016269537766675</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41.23830338767577</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4501191694890633</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.18925187619530648</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.09924567151141149</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.37151624673581773</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32.195632192965434</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13.417549049937543</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.0327850995519965</v>
+      </c>
+      <c r="F12" t="n">
+        <v>26.326527741662943</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.555097106775266</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.23133705258513004</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.12125491550951717</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.4539056507183266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42.89603487886565</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17.783330781816268</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.321610325586166</v>
+      </c>
+      <c r="F13" t="n">
+        <v>34.89451609279925</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.680889442521677</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2822750917748614</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.14796206866009787</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5538812078222104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39.00717954153526</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.895805139829386</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.785680259999786</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29.1449154852832</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8126495737819845</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3103292737464456</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1622016720833289</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6071857392767334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.54044631973476</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.263845310939606</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.881254031280796</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22.015886340696532</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0907302257048128</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.40228018967641455</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.210044786831457</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7862816550248761</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43.87619745660092</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15.43976929910259</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.049187793888748</v>
+      </c>
+      <c r="F16" t="n">
+        <v>30.13132958764314</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.3295817411091186</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.46787179694250275</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.24391478163299238</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9130705935649437</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.00154250908418</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.806294799050606</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.692736415839846</v>
+      </c>
+      <c r="F17" t="n">
+        <v>25.05358949905488</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.4167309378785076</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5335956166271086</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2788640173266602</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.04389956246062</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="n">
+        <v>24.283171058769785</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.38390905345782</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.368016616851524</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.351233403521995</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.6188780705846522</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5589272702305214</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2912011077901016</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.0900822269014663</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28.36578530664849</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.723576594438919</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.065983405702677</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18.9640022809074</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.891052353776566</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6482384396292613</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.33773222704684513</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.26426681872716</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="n">
+        <v>21.82580045701999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.455698240345496</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.884418783220004</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14.540933273105763</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.9841636779109082</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6777907491223178</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.35312898029272766</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.3219030248277965</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16.884740238273345</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.14120753329943</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.744887794748611</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14.018612970861952</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.110592529784168</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8926509416624288</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4681109743435764</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.752326621357744</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15.123921127458818</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.138426340232311</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.677120123261034</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.021531469415356</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.5206535212431365</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8564043900387185</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4461866872101724</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.6702552449025592</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.050945275677377</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.7183799941129623</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.4162759769328532</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.301687492050443</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.683648425225792</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9061266647043207</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.47209199231095106</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.7672291640168145</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14.811297156960336</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.220982247828518</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.7201317511186582</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.182541197137585</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.9622594313920674</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.0441964495657037</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5440263502237317</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.036508239427517</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.450431389714121</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.5687770648742279</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8173328507994727</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.0596037936827463</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.450431389714121</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.5687770648742279</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8173328507994727</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.0596037936827463</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26.22652026378378</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.244848392983782</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.81656601274455</v>
+      </c>
+      <c r="F26" t="n">
+        <v>18.03033321210795</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.7466457519691114</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.3206926275691118</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6880808589635072</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.575761887443993</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="n">
-        <v>32.195632192965434</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3320230008911231</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.17630421347318637</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.6599771927155259</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.555097106775266</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3320230008911231</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.17630421347318637</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6599771927155259</v>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.133488342803489</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.80955464083823</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9427779678767179</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.5291950449497054</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.133488342803489</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.80955464083823</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9427779678767179</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.5291950449497054</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18.287106245232657</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.319618766779936</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.292521377492347</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12.32522452450485</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.571776561308164</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.579904691694984</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8231303443730867</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.0813061311262127</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.47583749886393</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.577732718349535</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8219987462601078</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.0770701067500874</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.47583749886393</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.577732718349535</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8219987462601078</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.0770701067500874</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +3548,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2908,31 +3580,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
         <v>7.53088163426579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009775452922317322</v>
+        <v>3.4572287499363528</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0050930109725273245</v>
+        <v>0.9675165813562507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.019065177274558788</v>
+        <v>3.621801570648989</v>
       </c>
       <c r="G2" t="n">
         <v>0.018234580228246464</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009775452922317322</v>
+        <v>0.00837101392236405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0050930109725273245</v>
+        <v>0.0033829251096372404</v>
       </c>
       <c r="J2" t="n">
-        <v>0.019065177274558788</v>
+        <v>0.012663641855416047</v>
       </c>
     </row>
     <row r="3">
@@ -2940,31 +3612,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
         <v>13.836812032862149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.061130101988776116</v>
+        <v>6.948420481276854</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03233537509327928</v>
+        <v>1.4957315348591806</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12104424312418165</v>
+        <v>5.599121427591856</v>
       </c>
       <c r="G3" t="n">
         <v>0.03502990388066367</v>
       </c>
       <c r="H3" t="n">
-        <v>0.020376700662925372</v>
+        <v>0.017590937927283175</v>
       </c>
       <c r="I3" t="n">
-        <v>0.010778458364426426</v>
+        <v>0.006861153829629269</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04034808104139388</v>
+        <v>0.025684043245834204</v>
       </c>
     </row>
     <row r="4">
@@ -2972,31 +3644,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
         <v>21.744771574210837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08164315889885299</v>
+        <v>10.820500977738641</v>
       </c>
       <c r="E4" t="n">
-        <v>0.043083355096658386</v>
+        <v>2.286592777453887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.161278231468831</v>
+        <v>8.55963140312088</v>
       </c>
       <c r="G4" t="n">
         <v>0.05861124413533919</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04082157944942649</v>
+        <v>0.029165770829484204</v>
       </c>
       <c r="I4" t="n">
-        <v>0.021541677548329193</v>
+        <v>0.0123599609592102</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0806391157344155</v>
+        <v>0.04626827785470746</v>
       </c>
     </row>
     <row r="5">
@@ -3004,31 +3676,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
         <v>22.635112797113692</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08781454803157082</v>
+        <v>11.343484713998807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04636820043062337</v>
+        <v>2.301738156274314</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17357472149199554</v>
+        <v>8.616326614197268</v>
       </c>
       <c r="G5" t="n">
         <v>0.08807436886036456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04390727401578541</v>
+        <v>0.04413807281711598</v>
       </c>
       <c r="I5" t="n">
-        <v>0.023184100215311684</v>
+        <v>0.01871331834369361</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08678736074599777</v>
+        <v>0.07005143588778266</v>
       </c>
     </row>
     <row r="6">
@@ -3036,31 +3708,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
         <v>19.403494778082816</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14519319163906189</v>
+        <v>10.062920725737174</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07709758476034187</v>
+        <v>1.7719183783292685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.28860709879186375</v>
+        <v>6.632999257437783</v>
       </c>
       <c r="G6" t="n">
         <v>0.1228069289752077</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07259659581953094</v>
+        <v>0.06368937168188084</v>
       </c>
       <c r="I6" t="n">
-        <v>0.038548792380170935</v>
+        <v>0.026847248156504067</v>
       </c>
       <c r="J6" t="n">
-        <v>0.14430354939593187</v>
+        <v>0.10049998874905731</v>
       </c>
     </row>
     <row r="7">
@@ -3068,31 +3740,639 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
+        <v>24.048696814810192</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.083661795918177</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.8228139206080107</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.566921630404028</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.18357783828099383</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0846081053123525</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03763751894144014</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.14089228840538703</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.54259851968771</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.86704788191862</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.723282261879516</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.19433481911978</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.23886742464753155</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.10310520792928626</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.04777688178735993</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.17884797928280316</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17.54234937483178</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.519140308280513</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.351270917297136</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.801747551810099</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3373528725929188</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.14459885208231757</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.07125063385748896</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2667196227821242</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.585811841244787</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.247180466877106</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.8643122951570503</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.9788666456909025</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3933066200388996</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.16397438958990956</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0810570563111761</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.30342898459525663</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.494064736503075</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.837843287234869</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.1611654736295516</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.090106833984864</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5176451691608241</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.20849440311553105</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.10805827368147759</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.40450534169924324</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.604137122887819</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.71351480626741</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.66093157392493</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.960931253830582</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7092789601312645</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.25970521846670047</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.13304657869624648</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.4980465626915291</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
         <v>20.438382735447362</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.5227370762557566</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2723460167292492</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.0195000790242712</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="D13" t="n">
+        <v>7.933480615714766</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.3429548636020905</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.514017236408066</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.7860916436710524</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.2613685381278783</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1361730083646246</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5097500395121356</v>
+      <c r="H13" t="n">
+        <v>0.3051338698351833</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.15918832683819478</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5959055826860983</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.856124063408854</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.702846661557767</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.216490935647803</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.297212168503986</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9182945759577753</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.33591761868269765</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1704993027421387</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.638247089884922</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11.791202949156684</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.10561152041404</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.139023602135715</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8.007220952234835</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.1791202949156685</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.410561152041404</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2139023602135715</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8007220952234836</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11.144487104746602</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.842686436566116</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.0020396334509467</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.494435163860273</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.3930608880933253</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4803358045707645</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.25025495418136834</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9368043954825341</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.777806915461841</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.8234149412504226</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.749520027993467</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.8057532727907444</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.1944517288654604</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.45585373531260565</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.24984000933115566</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9352510909302482</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.573685356905498</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.374888226672481</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.800316766096363</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.482705782205125</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.7304094841006108</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.597209802963609</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3111463073440403</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.1647450869116804</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.248550812739447</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.2601141614906552</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.6985194781366313</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.358237814456666</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.8497101625478896</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.652022832298131</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3397038956273263</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.271647562891333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.752790973767167</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.393803318207459</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.289171528786086</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.569284700857835</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.1254651622945278</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7323005530345765</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.38152858813101437</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.4282141168096392</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.618033054542469</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.68535665172622</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.3990708155493607</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.237281690927476</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.5393443515141563</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.89511888390874</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.46635693851645355</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.7457605636424922</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.971491611580422</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.162450793082099</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.6476368631957734</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.16776383368706</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.9904972038601407</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.0541502643606997</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5492122877319245</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.0559212778956866</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13.323178551097447</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.577565924907956</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.384911846877045</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.927679007599531</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.6646357102194895</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9155131849815913</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.47698236937540905</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.7855358015199063</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.2988849704935586</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.2203569520989794</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.1568059720435682</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.330387475747893</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.1494424852467793</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.1101784760494897</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5784029860217841</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.1651937378739463</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.597500461116783</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0426885509709243</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.597500461116783</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.0426885509709243</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.1206421195535805</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.452526347142637</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7567662268613139</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.8328786936326424</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.1206421195535805</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.452526347142637</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7567662268613139</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.8328786936326424</v>
       </c>
     </row>
   </sheetData>
@@ -3111,7 +4391,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3143,31 +4423,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
         <v>14.180779010662379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02882300126643544</v>
+        <v>5.938782442570753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0152015645378682</v>
+        <v>3.113729824442253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05690553669105583</v>
+        <v>11.65593622481713</v>
       </c>
       <c r="G2" t="n">
         <v>0.015600416953423958</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005764600253287088</v>
+        <v>0.006533314018229651</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0030403129075736402</v>
+        <v>0.0034254453514216206</v>
       </c>
       <c r="J2" t="n">
-        <v>0.011381107338211165</v>
+        <v>0.012822812128511694</v>
       </c>
     </row>
     <row r="3">
@@ -3175,31 +4455,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
         <v>20.46623178191275</v>
       </c>
       <c r="D3" t="n">
-        <v>0.035246928437076414</v>
+        <v>8.209853233798611</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01871611900008758</v>
+        <v>4.299472816554205</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07006191986492784</v>
+        <v>16.094646541489013</v>
       </c>
       <c r="G3" t="n">
         <v>0.029490247524369958</v>
       </c>
       <c r="H3" t="n">
-        <v>0.017623464218538207</v>
+        <v>0.011829759702879843</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00935805950004379</v>
+        <v>0.006195205787542083</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03503095993246392</v>
+        <v>0.023191133345085033</v>
       </c>
     </row>
     <row r="4">
@@ -3207,31 +4487,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
         <v>19.265112780203324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06196260231310201</v>
+        <v>7.969165898264634</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03290214182825717</v>
+        <v>4.176859718631821</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12316587771989788</v>
+        <v>15.635656670726359</v>
       </c>
       <c r="G4" t="n">
         <v>0.04710296523277096</v>
       </c>
       <c r="H4" t="n">
-        <v>0.030981301156551004</v>
+        <v>0.019484513198691034</v>
       </c>
       <c r="I4" t="n">
-        <v>0.016451070914128584</v>
+        <v>0.01021237095020005</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06158293885994894</v>
+        <v>0.03822898941497887</v>
       </c>
     </row>
     <row r="5">
@@ -3239,31 +4519,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
         <v>19.271753794828815</v>
       </c>
       <c r="D5" t="n">
-        <v>0.030178632854226957</v>
+        <v>7.942564521763297</v>
       </c>
       <c r="E5" t="n">
-        <v>0.015723067717052244</v>
+        <v>4.163110066934005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05885773169201337</v>
+        <v>15.584186224560753</v>
       </c>
       <c r="G5" t="n">
         <v>0.07217885316415286</v>
       </c>
       <c r="H5" t="n">
-        <v>0.030178632854226957</v>
+        <v>0.02974743266578014</v>
       </c>
       <c r="I5" t="n">
-        <v>0.015723067717052244</v>
+        <v>0.01559217253533335</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05885773169201337</v>
+        <v>0.058367738668766864</v>
       </c>
     </row>
     <row r="6">
@@ -3271,31 +4551,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
         <v>19.77818971153754</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12995914342005027</v>
+        <v>8.503841237593594</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06813021872199913</v>
+        <v>4.464561380738732</v>
       </c>
       <c r="F6" t="n">
-        <v>0.25503866076393156</v>
+        <v>16.712639072657367</v>
       </c>
       <c r="G6" t="n">
         <v>0.11703070835229314</v>
       </c>
       <c r="H6" t="n">
-        <v>0.043319714473350084</v>
+        <v>0.05031858720469582</v>
       </c>
       <c r="I6" t="n">
-        <v>0.022710072907333043</v>
+        <v>0.026417522962951075</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08501288692131051</v>
+        <v>0.09889135545951105</v>
       </c>
     </row>
     <row r="7">
@@ -3303,31 +4583,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>23.73356176725536</v>
+        <v>17.84836758847963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2803322130684712</v>
+        <v>7.132623859636678</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1479341193214938</v>
+        <v>3.7368000343170253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5537765822680799</v>
+        <v>13.988337248462352</v>
       </c>
       <c r="G7" t="n">
-        <v>0.30427643291353024</v>
+        <v>0.1607961044007174</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1401661065342356</v>
+        <v>0.06425787260933943</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0739670596607469</v>
+        <v>0.03366486517402725</v>
       </c>
       <c r="J7" t="n">
-        <v>0.27688829113403995</v>
+        <v>0.12602105629245364</v>
       </c>
     </row>
     <row r="8">
@@ -3335,31 +4615,767 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.36598038846589</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.291406261266086</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.3453535081167525</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.26639632228425</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2368137254472778</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.09641170071239637</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05052736637345061</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.189144143282375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.73356176725536</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.9616862536034</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.687377956636135</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.546730642871708</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.30427643291353024</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1148934135077359</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06009458918764275</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2249580851650219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27.32445314668468</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.015161455626375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.7711827645774765</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.603845560919325</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.39034933066692395</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1573594493660911</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.08244546806539252</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.30862636515599035</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.867659703859292</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.275847283917553</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.848392986005502</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.149474303812998</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4692011264879112</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.17501598648901043</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.09147911294350004</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.34244291139269806</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.880591932396385</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.790624628297315</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.071258216085364</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15.240348006093951</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6141350568351878</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2291360184793328</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.11974288870839306</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.44824552959099856</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23.25996144341737</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.127015292937077</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.240519983545072</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.873962506402624</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7753320481139124</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.27090050976456925</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.14135066611816907</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5291320835467541</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16.797617459066345</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.687213016069687</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.963037981372307</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11.091836379469093</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9332009699481303</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.31595627867053816</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1646132211873504</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6162131321927274</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.707896855602232</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.298165269257247</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.7603441052830258</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.333072123716478</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.1219926325430167</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.37844037637551764</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1971674360916447</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7380765802654627</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.00331317615756</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.447424420942062</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.880108123310815</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.524796748801704</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.2943125397739743</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.43808378946718013</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.22824165431240087</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8543998087530414</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.716897185880553</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.920183553880204</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.0424156315715867</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.645578675225077</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.4646121482350691</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4900229442350255</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.25530195394644833</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9556973344031346</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.692870505301922</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.377705614320355</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.406784625060904</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20.23975756545299</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.7051594725167734</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5765392007955753</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3003769236144947</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.1244309758584996</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19.307948088733557</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.521766931531626</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.397840571327977</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.71947639470915</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.9307948088733558</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6521766931531625</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3397840571327977</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.2719476394709148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18.12969791397961</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.205684118903849</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.2331614259489054</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.103016481897132</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.0144108793310673</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6895204576559832</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3592401584387673</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.3447796090996813</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.29096587508497</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.104918277542235</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.7016624225995045</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.856803112758985</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.3656628750094413</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7894353641713594</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.41129582473327825</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.539644790306554</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.141806008198785</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.7882746088783</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.5366910712255946</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.23924935602589</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.517725751024848</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8485343261097875</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4420863839031993</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.6549061695032363</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.5582220432050735</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9017732702297884</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.46982387378971974</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.758738689144437</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5582220432050735</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9017732702297884</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.46982387378971974</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.758738689144437</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10.138325591379452</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.4354000369942077</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.7898434192739823</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.700099855710225</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.534581397844863</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8588500092485519</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.44746085481849557</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.6750249639275563</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.3728322021876136</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7830346267219125</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4079610405221164</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.5271613590904907</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.3728322021876136</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7830346267219125</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4079610405221164</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.5271613590904907</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="n">
-        <v>27.32445314668468</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.33616273127869045</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.17850241030898464</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6682059227506532</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.39034933066692395</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.33616273127869045</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.17850241030898464</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6682059227506532</v>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10.867778388234438</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.6614633755580486</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.9076224186657433</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.140993762033345</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.622592796078146</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.2204877918526829</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6358741395552477</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.380331254011115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.078644271818145</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.3153627776613517</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6853040071615643</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.5653670204085994</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.078644271818145</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.3153627776613517</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6853040071615643</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.5653670204085994</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.1120882023047063</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.39201109131240897</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.20423777857376507</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7645437003130322</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.1120882023047063</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.39201109131240897</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.20423777857376507</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.7645437003130322</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.406372103487893</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.3888439372300594</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.7655876912968609</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.60930096360067</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.2031860517439465</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.6944219686150297</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8827938456484304</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.304650481800335</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.835639169525055</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.5035216859490035</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.329370015238921</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.976363715045377</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.835639169525055</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.5035216859490035</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.329370015238921</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.976363715045377</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.194251071107258</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.6426459704320906</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.3768185505951192</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.153982562297769</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.194251071107258</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.6426459704320906</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.3768185505951192</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.153982562297769</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +5394,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3410,31 +5426,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
-        <v>20.73178262902419</v>
+        <v>23.663093497509</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02018884055273199</v>
+        <v>11.20959111099022</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01067117708819902</v>
+        <v>5.895372260922758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03994648431196421</v>
+        <v>22.068736521538252</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01669225654510804</v>
+        <v>0.01521742347106688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.010094420276365996</v>
+        <v>0.007222674684916378</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00533558854409951</v>
+        <v>0.003798564601110024</v>
       </c>
       <c r="J2" t="n">
-        <v>0.019973242155982104</v>
+        <v>0.014219546727795265</v>
       </c>
     </row>
     <row r="3">
@@ -3442,31 +5458,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>25.63224873007789</v>
+        <v>24.0993544933728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04945317149258359</v>
+        <v>11.491549685887756</v>
       </c>
       <c r="E3" t="n">
-        <v>0.026259634062561883</v>
+        <v>6.046147864844313</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09830031414979415</v>
+        <v>22.6331499172582</v>
       </c>
       <c r="G3" t="n">
-        <v>0.031258839914729136</v>
+        <v>0.028352181756909175</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01648439049752786</v>
+        <v>0.013519470218691479</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008753211354187294</v>
+        <v>0.007113115135110957</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03276677138326472</v>
+        <v>0.026627235196774356</v>
       </c>
     </row>
     <row r="4">
@@ -3474,31 +5490,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>39.67429576650458</v>
+        <v>30.965957613541836</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0648767424607376</v>
+        <v>15.275387927735895</v>
       </c>
       <c r="E4" t="n">
-        <v>0.034302707511016835</v>
+        <v>8.044080325154138</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1284087552967404</v>
+        <v>30.112210289182</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05234075958641765</v>
+        <v>0.046847137085539836</v>
       </c>
       <c r="H4" t="n">
-        <v>0.021625580820245866</v>
+        <v>0.023144527163236204</v>
       </c>
       <c r="I4" t="n">
-        <v>0.011434235837005612</v>
+        <v>0.012188000492657785</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0428029184322468</v>
+        <v>0.045624561044215146</v>
       </c>
     </row>
     <row r="5">
@@ -3506,31 +5522,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
-        <v>35.78938453973375</v>
+        <v>30.337704695616132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.028561356608587246</v>
+        <v>15.168840867368823</v>
       </c>
       <c r="E5" t="n">
-        <v>0.014880466793073956</v>
+        <v>7.992714766074335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05570353939319305</v>
+        <v>29.919928455322665</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07831375172808262</v>
+        <v>0.07206105628412383</v>
       </c>
       <c r="H5" t="n">
-        <v>0.028561356608587246</v>
+        <v>0.03611628777944958</v>
       </c>
       <c r="I5" t="n">
-        <v>0.014880466793073956</v>
+        <v>0.01903027325255794</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05570353939319305</v>
+        <v>0.07123792489362539</v>
       </c>
     </row>
     <row r="6">
@@ -3538,31 +5554,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
-        <v>49.03202687563649</v>
+        <v>41.04712074311909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26433720571922403</v>
+        <v>19.152363959303987</v>
       </c>
       <c r="E6" t="n">
-        <v>0.139738742909422</v>
+        <v>10.07451979358179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5230980102071302</v>
+        <v>37.71295739529407</v>
       </c>
       <c r="G6" t="n">
-        <v>0.11900977396999148</v>
+        <v>0.1121506031232762</v>
       </c>
       <c r="H6" t="n">
-        <v>0.088112401906408</v>
+        <v>0.05232886327678685</v>
       </c>
       <c r="I6" t="n">
-        <v>0.046579580969807334</v>
+        <v>0.027526010364977566</v>
       </c>
       <c r="J6" t="n">
-        <v>0.17436600340237673</v>
+        <v>0.10304086720025701</v>
       </c>
     </row>
     <row r="7">
@@ -3570,31 +5586,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>46.46060273045793</v>
+        <v>33.79872782281202</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37795721963351353</v>
+        <v>15.48121459342383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.20069528362539568</v>
+        <v>8.141052857296774</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7512827247233063</v>
+        <v>30.475217266004744</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2150953830113793</v>
+        <v>0.15720338522238148</v>
       </c>
       <c r="H7" t="n">
-        <v>0.18897860981675677</v>
+        <v>0.07200564927173875</v>
       </c>
       <c r="I7" t="n">
-        <v>0.10034764181269784</v>
+        <v>0.03786536212696174</v>
       </c>
       <c r="J7" t="n">
-        <v>0.37564136236165313</v>
+        <v>0.14174519658606857</v>
       </c>
     </row>
     <row r="8">
@@ -3602,31 +5618,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
-        <v>40.380939695147774</v>
+        <v>46.89557777319145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.26191289180024</v>
+        <v>20.578727515042427</v>
       </c>
       <c r="E8" t="n">
-        <v>0.13645661662792505</v>
+        <v>10.804136183294375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5108116986849747</v>
+        <v>40.44420338854416</v>
       </c>
       <c r="G8" t="n">
-        <v>0.37046733665273185</v>
+        <v>0.21610865333267948</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13095644590012</v>
+        <v>0.09483284569143975</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06822830831396252</v>
+        <v>0.04978864600596486</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25540584934248733</v>
+        <v>0.18637881745872886</v>
       </c>
     </row>
     <row r="9">
@@ -3634,31 +5650,607 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35.898495221297246</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.679344330048814</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.155333595797417</v>
+      </c>
+      <c r="F9" t="n">
+        <v>26.78527578250805</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.28950399372013913</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.11031729298426463</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.057704303191914656</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.21601028856861332</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42.6924337311864</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.3111075484911</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.53181505208122</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31.937996465960836</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3587599473208941</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.13706813065958906</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0716959248074052</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.26838652492404064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>48.951981946756284</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.663440658795647</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.221466925100222</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34.51963928742017</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4895198194675628</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.17663440658795648</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.09221466925100222</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3451963928742017</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="n">
+        <v>48.05618518370814</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17.64129253698013</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.211949803293031</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34.48401289364713</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5789901829362426</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.21254569321662808</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.11098734702762689</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.4154700348632185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.00666619668223</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13.357196757249152</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.985151428602419</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26.148215857830298</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.636484839939677</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2428581228590755</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.12700275324731672</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.47542210650600536</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>44.97623204963669</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.149547505564456</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.430236085954853</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31.557745764163396</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.775452276717874</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.27844047423387</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.14534889803370435</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5440990648993689</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44.098269873085016</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15.09334556973381</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.866015602244989</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.445642805443892</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0022334062064777</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3430305811303138</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1787730818692043</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6692191546691794</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40.17255815077521</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.09087594882955</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.349649965283616</v>
+      </c>
+      <c r="F16" t="n">
+        <v>27.512679680042687</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.057172582915137</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3708125249691987</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1934118411916741</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7240178863169129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.757649277683146</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.304752546255797</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.326776076599271</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.19685356514171</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.125347694440143</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.37748875210253624</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.19667163984542138</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7362206165973504</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.87060348649791</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.201431047230889</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.843033874342859</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21.872813005215058</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.2748241394599165</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.44805724188923557</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.23372135497371435</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8749125202086022</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="n">
+        <v>26.80658780712477</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.312439683442589</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.858402954602903</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18.18694562026051</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.576858106301457</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.54779056961427</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.28578840909428843</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.0698203306035594</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="n">
+        <v>27.018929446232953</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.5027118346452</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.95819021491796</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.560489250523894</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.6886830903895595</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.593919489665325</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3098868884323725</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.1600305781577434</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.385726467765897</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.8073753011083813</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.4626425318774667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.475256053830109</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.3976210779609828</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.46789588351806355</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.24377375531291112</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9125426756383516</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22.635675224195623</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.716297316033757</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.020190901653588</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15.049182621250038</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.8863062686829684</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6430247763361464</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3350159084711323</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.2540985517708365</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.0352386189914373</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0677167587537695</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5562804313107139</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.082380166568526</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.5176193094957187</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5338583793768847</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.27814021565535696</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.041190083284263</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.409998985597637</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.237216673250762</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.686589886763647</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.313580582111037</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.3524997463994093</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8093041683126905</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.42164747169091177</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.5783951455277592</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.535116093869355</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.166588310976887</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6077925100189582</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.2752104820049683</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.535116093869355</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.166588310976887</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6077925100189582</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.2752104820049683</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.6733657833627036</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.2122107085096923</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6315617791335497</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.36418836400853</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.6733657833627036</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.2122107085096923</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6315617791335497</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.36418836400853</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="n">
-        <v>32.195632192965434</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3320230008911231</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.17630421347318637</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.6599771927155259</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.555097106775266</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3320230008911231</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.17630421347318637</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6599771927155259</v>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.3256563992657355</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.7175241887631998</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8948301023456271</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.3497070051206204</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.3256563992657355</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.7175241887631998</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8948301023456271</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.3497070051206204</v>
       </c>
     </row>
   </sheetData>
